--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:14+02:00</t>
+    <t>2025-06-02T21:24:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-02T21:24:52+02:00</t>
+    <t>2025-06-02T21:28:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
